--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FDDBD8-7C93-43AD-990D-96613B141B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA6EAC-DB88-4823-8502-79344DEDD49B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,8 +89,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工序产能总表完成初版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>smt增加小样报告跳转</t>
+  </si>
+  <si>
+    <t>挪用工序增加挪用工段显示</t>
+  </si>
+  <si>
+    <t>创建订单，全角自动转为半角，去除8206特殊控制字符</t>
+  </si>
+  <si>
+    <t>工序产能贴片页面完成，平衡卡页面完成，主页基本完成，核心功能主要为主表内容正确显示和可查询记录新建记录，贴片和平衡卡的上传和跳转，各工段新增数据和编辑数据</t>
+  </si>
+  <si>
+    <t>协助实现pdf导出功能，页面增加菜单栏变宽响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入包装基本信息页增加屏序自动增加功能，添加行可以输入数量一次性增加</t>
   </si>
 </sst>
 </file>
@@ -672,8 +687,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -879,12 +894,12 @@
       <c r="G9" s="7"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8">
         <v>43770</v>
@@ -893,9 +908,11 @@
         <v>43784</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43792</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="10"/>
     </row>
@@ -903,13 +920,21 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8">
+        <v>43780</v>
+      </c>
+      <c r="D11" s="8">
+        <v>43780</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="8">
+        <v>43780</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
     </row>
@@ -917,13 +942,21 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8">
+        <v>43780</v>
+      </c>
+      <c r="D12" s="8">
+        <v>43780</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="8">
+        <v>43780</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="10"/>
     </row>
@@ -931,13 +964,21 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43780</v>
+      </c>
+      <c r="D13" s="8">
+        <v>43781</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>43781</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="11"/>
     </row>
@@ -945,27 +986,43 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8">
+        <v>43781</v>
+      </c>
+      <c r="D14" s="8">
+        <v>43782</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="8">
+        <v>43782</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43789</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43789</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="8">
+        <v>43789</v>
+      </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA6EAC-DB88-4823-8502-79344DEDD49B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4ED84-14FC-42C5-8CBC-4B6DEBB2F04D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,21 +98,83 @@
     <t>创建订单，全角自动转为半角，去除8206特殊控制字符</t>
   </si>
   <si>
-    <t>工序产能贴片页面完成，平衡卡页面完成，主页基本完成，核心功能主要为主表内容正确显示和可查询记录新建记录，贴片和平衡卡的上传和跳转，各工段新增数据和编辑数据</t>
-  </si>
-  <si>
     <t>协助实现pdf导出功能，页面增加菜单栏变宽响应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>录入包装基本信息页增加屏序自动增加功能，添加行可以输入数量一次性增加</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一轮，优化操作体验和排查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>bug</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第二轮，优化操作体验和排查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，检查逻辑问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、工序产能贴片页面完成，平衡卡页面完成，主页基本完成
+2、核心功能主要为主表内容正确显示和可查询记录新建记录，贴片和平衡卡的上传和跳转，各工段新增数据和编辑数据，左上三角定位提供功能入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、工序产能平衡卡页合并功能修复
+2、部分三角定位和显示问题修复
+3、首页编辑保存问题bug解决和优化刷新方式
+4、子页签名刷新问题修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新建总表数据和单行数据刷新为通过ajax判断成功后，由前端先自己修改数据显示，达到最快效果。
+2、打底壳锁面罩取消新增功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +231,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -688,7 +763,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -894,12 +969,12 @@
       <c r="G9" s="7"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8">
         <v>43770</v>
@@ -987,7 +1062,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8">
         <v>43781</v>
@@ -1009,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="8">
         <v>43789</v>
@@ -1025,33 +1100,49 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8">
+        <v>43791</v>
+      </c>
+      <c r="D16" s="8">
+        <v>43796</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="8">
+        <v>43794</v>
+      </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8">
+        <v>43791</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4ED84-14FC-42C5-8CBC-4B6DEBB2F04D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCFCC20-93A8-470C-95B9-D30785B1E96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,8 +165,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>1、新建总表数据和单行数据刷新为通过ajax判断成功后，由前端先自己修改数据显示，达到最快效果。
-2、打底壳锁面罩取消新增功能。</t>
+2、打底壳锁面罩取消新增功能。
+3、三角颜色区分，主页文件数据显示逻辑与表格是否审核关联
+4、上传显示img和pdf功能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +768,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,19 +1129,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8">
         <v>43791</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8">
+        <v>43795</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCFCC20-93A8-470C-95B9-D30785B1E96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FBE56-B2D8-4B01-97ED-58CBB1EA0159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,14 @@
 2、打底壳锁面罩取消新增功能。
 3、三角颜色区分，主页文件数据显示逻辑与表格是否审核关联
 4、上传显示img和pdf功能完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三轮优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、防止刷新页面等待过久，现在上传文件也不再刷新页面，且正确反馈上传信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -338,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1151,19 +1162,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8">
+        <v>43796</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FBE56-B2D8-4B01-97ED-58CBB1EA0159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79667892-01C4-4A2F-9BAA-B7CF73760354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,18 +168,18 @@
     <t>进行中</t>
   </si>
   <si>
+    <t>第三轮优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、防止刷新页面等待过久，现在上传文件也不再刷新页面，且正确反馈上传信息
+2、图片和PDF的上传和显示功能完成和优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、新建总表数据和单行数据刷新为通过ajax判断成功后，由前端先自己修改数据显示，达到最快效果。
 2、打底壳锁面罩取消新增功能。
-3、三角颜色区分，主页文件数据显示逻辑与表格是否审核关联
-4、上传显示img和pdf功能完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三轮优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、防止刷新页面等待过久，现在上传文件也不再刷新页面，且正确反馈上传信息</t>
+3、三角颜色区分，主页文件数据显示逻辑与表格是否审核关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,11 +344,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -779,7 +779,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,16 +794,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8">
         <v>43791</v>
@@ -1167,7 +1167,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="8">
         <v>43796</v>
@@ -1178,8 +1178,8 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="14" t="s">
-        <v>29</v>
+      <c r="H18" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79667892-01C4-4A2F-9BAA-B7CF73760354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F932A3-1C85-40F0-9CD8-11346EA70660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,14 +172,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、防止刷新页面等待过久，现在上传文件也不再刷新页面，且正确反馈上传信息
-2、图片和PDF的上传和显示功能完成和优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、新建总表数据和单行数据刷新为通过ajax判断成功后，由前端先自己修改数据显示，达到最快效果。
 2、打底壳锁面罩取消新增功能。
 3、三角颜色区分，主页文件数据显示逻辑与表格是否审核关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、防止刷新页面等待过久，现在上传文件也不再刷新页面，且正确反馈上传信息
+2、图片和PDF的上传和显示功能完成和优化
+3、子表版本号可以正确切换
+4、解决新建数据出现子组件数据错位问题
+5、新建数据验证数值正确反馈（编辑的还没验证）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +782,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8">
         <v>43791</v>
@@ -1162,12 +1165,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8">
         <v>43796</v>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F932A3-1C85-40F0-9CD8-11346EA70660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C260952E-EF2E-4A01-AC61-AC5E703822F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,9 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>第三轮优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,7 +179,9 @@
 2、图片和PDF的上传和显示功能完成和优化
 3、子表版本号可以正确切换
 4、解决新建数据出现子组件数据错位问题
-5、新建数据验证数值正确反馈（编辑的还没验证）</t>
+5、新建数据验证数值正确反馈，工段验证简单限制
+6、跳过工段功能已正确运行
+7、数据新增可粘贴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,8 +780,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,7 +1147,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8">
         <v>43791</v>
@@ -1157,32 +1156,38 @@
         <v>43795</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="8">
+        <v>43798</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="8">
         <v>43796</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8">
+        <v>43798</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="8">
+        <v>43800</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2019-11郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C260952E-EF2E-4A01-AC61-AC5E703822F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757C7E7-A53B-4685-87B1-D739664D4960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2040" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,9 @@
 4、解决新建数据出现子组件数据错位问题
 5、新建数据验证数值正确反馈，工段验证简单限制
 6、跳过工段功能已正确运行
-7、数据新增可粘贴</t>
+7、数据新增可粘贴
+8、首页上传excel后替换还是新增文件不能正确识别问题解决
+9、各工段数据验证已经可以正确运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
